--- a/cohesionAndConflict_odkx/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/cohesionAndConflict_odkx/app/config/assets/framework/forms/framework/framework.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="0" windowWidth="28760" windowHeight="18660" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="3380" yWindow="0" windowWidth="28760" windowHeight="18660" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -1659,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1739,7 +1739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/cohesionAndConflict_odkx/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/cohesionAndConflict_odkx/app/config/assets/framework/forms/framework/framework.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="0" windowWidth="28760" windowHeight="18660" tabRatio="500" activeTab="3"/>
+    <workbookView minimized="1" xWindow="2900" yWindow="7580" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="164">
   <si>
     <t>clause</t>
   </si>
@@ -518,6 +518,15 @@
   </si>
   <si>
     <t>'?' + odkSurvey.getHashString('household_member')</t>
+  </si>
+  <si>
+    <t>reproductive_history</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('reproductive_history')</t>
+  </si>
+  <si>
+    <t>Reproductive history</t>
   </si>
 </sst>
 </file>
@@ -667,7 +676,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -677,8 +686,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -717,22 +730,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1657,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A6:B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1723,6 +1739,17 @@
       </c>
       <c r="C5" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1739,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.83203125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0"/>
@@ -1996,34 +2023,36 @@
     </row>
     <row r="22" spans="1:8" ht="33" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" ht="33" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="26" spans="1:8" ht="33" customHeight="1">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2034,53 +2063,61 @@
     </row>
     <row r="27" spans="1:8" ht="33" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="B27" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" ht="33" customHeight="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="30" spans="1:8" ht="33" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" ht="33" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" ht="33" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/cohesionAndConflict_odkx/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/cohesionAndConflict_odkx/app/config/assets/framework/forms/framework/framework.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2900" yWindow="7580" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="167">
   <si>
     <t>clause</t>
   </si>
@@ -527,6 +527,15 @@
   </si>
   <si>
     <t>Reproductive history</t>
+  </si>
+  <si>
+    <t>marriages</t>
+  </si>
+  <si>
+    <t>Marriages</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('marriages')</t>
   </si>
 </sst>
 </file>
@@ -676,7 +685,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -690,8 +699,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -734,21 +745,22 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1673,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1750,6 +1762,17 @@
       </c>
       <c r="C6" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1766,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.83203125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0"/>
@@ -2090,7 +2113,9 @@
       <c r="H28" s="15"/>
     </row>
     <row r="30" spans="1:8" ht="33" customHeight="1">
-      <c r="A30" s="16"/>
+      <c r="A30" s="16" t="s">
+        <v>164</v>
+      </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -2101,22 +2126,30 @@
     </row>
     <row r="31" spans="1:8" ht="33" customHeight="1">
       <c r="A31" s="18"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
+      <c r="B31" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" ht="33" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
       <c r="H32" s="19"/>
     </row>
   </sheetData>

--- a/cohesionAndConflict_odkx/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/cohesionAndConflict_odkx/app/config/assets/framework/forms/framework/framework.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="164">
   <si>
     <t>clause</t>
   </si>
@@ -518,15 +518,6 @@
   </si>
   <si>
     <t>'?' + odkSurvey.getHashString('household_member')</t>
-  </si>
-  <si>
-    <t>reproductive_history</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('reproductive_history')</t>
-  </si>
-  <si>
-    <t>Reproductive history</t>
   </si>
   <si>
     <t>marriages</t>
@@ -1191,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -1685,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1761,18 +1752,7 @@
         <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1789,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.83203125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0"/>
@@ -2073,9 +2053,7 @@
       <c r="H23" s="15"/>
     </row>
     <row r="26" spans="1:8" ht="33" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2086,26 +2064,18 @@
     </row>
     <row r="27" spans="1:8" ht="33" customHeight="1">
       <c r="A27" s="5"/>
-      <c r="B27" s="13" t="s">
-        <v>162</v>
-      </c>
+      <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="14" t="s">
-        <v>150</v>
-      </c>
+      <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="14" t="s">
-        <v>151</v>
-      </c>
+      <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" ht="33" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="15" t="s">
-        <v>149</v>
-      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -2114,7 +2084,7 @@
     </row>
     <row r="30" spans="1:8" ht="33" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -2127,7 +2097,7 @@
     <row r="31" spans="1:8" ht="33" customHeight="1">
       <c r="A31" s="18"/>
       <c r="B31" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>

--- a/cohesionAndConflict_odkx/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/cohesionAndConflict_odkx/app/config/assets/framework/forms/framework/framework.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="framework_translations" sheetId="3" r:id="rId3"/>
     <sheet name="choices" sheetId="4" r:id="rId4"/>
     <sheet name="survey" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="167">
   <si>
     <t>clause</t>
   </si>
@@ -527,6 +528,15 @@
   </si>
   <si>
     <t>'?' + odkSurvey.getHashString('marriages')</t>
+  </si>
+  <si>
+    <t>families</t>
+  </si>
+  <si>
+    <t>Families</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('families')</t>
   </si>
 </sst>
 </file>
@@ -676,8 +686,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -737,7 +749,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -745,6 +757,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -752,6 +765,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1182,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -1676,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1755,6 +1769,17 @@
         <v>162</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1767,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:H28"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.83203125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0"/>
@@ -2122,6 +2147,46 @@
       <c r="G32" s="15"/>
       <c r="H32" s="19"/>
     </row>
+    <row r="34" spans="1:8" ht="33" customHeight="1">
+      <c r="A34" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" ht="33" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="1:8" ht="33" customHeight="1">
+      <c r="A36" s="18"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="19"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2131,4 +2196,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/cohesionAndConflict_odkx/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/cohesionAndConflict_odkx/app/config/assets/framework/forms/framework/framework.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="framework_translations" sheetId="3" r:id="rId3"/>
     <sheet name="choices" sheetId="4" r:id="rId4"/>
     <sheet name="survey" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -1692,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2196,21 +2195,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/cohesionAndConflict_odkx/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/cohesionAndConflict_odkx/app/config/assets/framework/forms/framework/framework.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="4160" yWindow="580" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="168">
   <si>
     <t>clause</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>framework</t>
-  </si>
-  <si>
-    <t>Common JavaScript Framework</t>
   </si>
   <si>
     <t>string_token</t>
@@ -469,18 +466,6 @@
     <t>user_branch</t>
   </si>
   <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>This is the default form.</t>
-  </si>
-  <si>
-    <t>Set your url hash to #formPath=[relative path to form directory]/ to change forms.</t>
-  </si>
-  <si>
     <t>end if</t>
   </si>
   <si>
@@ -490,9 +475,6 @@
     <t>external_link</t>
   </si>
   <si>
-    <t>Open form</t>
-  </si>
-  <si>
     <t>'?' + odkSurvey.getHashString('household_items')</t>
   </si>
   <si>
@@ -536,6 +518,27 @@
   </si>
   <si>
     <t>'?' + odkSurvey.getHashString('families')</t>
+  </si>
+  <si>
+    <t>Main list of surveys</t>
+  </si>
+  <si>
+    <t>Freelist: household items</t>
+  </si>
+  <si>
+    <t>Freelist: cooperation measures</t>
+  </si>
+  <si>
+    <t>Main household census</t>
+  </si>
+  <si>
+    <t>member subform</t>
+  </si>
+  <si>
+    <t>marriage subform</t>
+  </si>
+  <si>
+    <t>families subform</t>
   </si>
 </sst>
 </file>
@@ -589,12 +592,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -621,6 +618,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE4DFEC"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -704,7 +707,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -714,6 +717,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -725,28 +732,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1096,7 +1100,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1104,7 +1110,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1128,7 +1134,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1139,13 +1145,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1178,7 +1184,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1207,474 +1213,474 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
       <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="45">
       <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="157">
       <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
       <c r="A37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
       <c r="A39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30">
       <c r="A41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="30">
       <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="30">
       <c r="A43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30">
       <c r="A47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
       <c r="A48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="30">
       <c r="A49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
       <c r="A50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
       <c r="A51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
       <c r="A52" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
       <c r="A53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1691,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1703,80 +1709,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>130</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
         <v>132</v>
-      </c>
-      <c r="C3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1791,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.83203125" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0"/>
@@ -1806,385 +1812,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="33" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="33" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="33" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="33" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="33" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="33" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" ht="33" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" ht="33" customHeight="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="33" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="33" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="33" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="24" spans="1:8" ht="33" customHeight="1">
+      <c r="A24" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="33" customHeight="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="33" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="33" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="33" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="33" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="33" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="33" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="33" customHeight="1">
-      <c r="A17" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" ht="33" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" ht="33" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="21" spans="1:8" ht="33" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" ht="33" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="28" spans="1:8" ht="33" customHeight="1">
+      <c r="A28" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="33" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="13" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" ht="33" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" ht="33" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="26" spans="1:8" ht="33" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="33" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:8" ht="33" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" ht="33" customHeight="1">
-      <c r="A30" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8" ht="33" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="1:8" ht="33" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="34" spans="1:8" ht="33" customHeight="1">
-      <c r="A34" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="1:8" ht="33" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" spans="1:8" ht="33" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="19"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
